--- a/public/location utilisasi.xlsx
+++ b/public/location utilisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF922E2-8E1A-486B-93F4-B0CD106E9AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2CD842-EF1A-4FFB-B619-67878BD68DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
   <si>
     <t>Ring</t>
   </si>
@@ -310,12 +310,6 @@
   </si>
   <si>
     <t>Pontianak, Siantan.Potianak, Gi.Senggiring, Saigon.Pnk, Siantan.Pontianak, Senggirin</t>
-  </si>
-  <si>
-    <t>Jatim Waru, Kima</t>
-  </si>
-  <si>
-    <t>Tello, Parepare, Sidrap, Talise, Botupingge, Palopo</t>
   </si>
   <si>
     <t>Tello, Daya, Rayon, Panakukang</t>
@@ -848,10 +842,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,22 +901,6 @@
       </c>
       <c r="C7" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/public/location utilisasi.xlsx
+++ b/public/location utilisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2CD842-EF1A-4FFB-B619-67878BD68DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A4EE0-635F-441A-BB63-59A9BF2C08D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
   <sheets>
     <sheet name="sumbagut" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="jateng" sheetId="6" r:id="rId6"/>
     <sheet name="jatim" sheetId="7" r:id="rId7"/>
     <sheet name="balnus" sheetId="8" r:id="rId8"/>
-    <sheet name="kal" sheetId="9" r:id="rId9"/>
-    <sheet name="ibt" sheetId="10" r:id="rId10"/>
+    <sheet name="kalimantan" sheetId="9" r:id="rId9"/>
+    <sheet name="sulawesi" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
@@ -1629,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AE07E1-59F6-46A7-80B9-40A061385ED3}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
